--- a/data/pca/factorExposure/factorExposure_2018-01-15.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-01-15.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,12 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,70 +723,94 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.01175182773263066</v>
+        <v>-0.006449219162912694</v>
       </c>
       <c r="C2">
-        <v>-0.005713348806245682</v>
+        <v>0.03134047999637873</v>
       </c>
       <c r="D2">
-        <v>-0.02159423040206324</v>
+        <v>-0.02738331683223761</v>
       </c>
       <c r="E2">
-        <v>-0.04327285214161859</v>
+        <v>-0.02216829939947334</v>
       </c>
       <c r="F2">
-        <v>-0.05682318476662888</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>0.03964064037612772</v>
+      </c>
+      <c r="G2">
+        <v>-0.002417030229195588</v>
+      </c>
+      <c r="H2">
+        <v>0.01836134155050829</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>0.06325419349225764</v>
+        <v>-0.05909650517081114</v>
       </c>
       <c r="C3">
-        <v>0.003492632704085976</v>
+        <v>0.08876474316911903</v>
       </c>
       <c r="D3">
-        <v>0.02955013804258728</v>
+        <v>-0.011496590804503</v>
       </c>
       <c r="E3">
-        <v>-0.1708186014643204</v>
+        <v>-0.06823207857826365</v>
       </c>
       <c r="F3">
-        <v>-0.2372573365976086</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>0.1041278652275883</v>
+      </c>
+      <c r="G3">
+        <v>-0.05090712570195204</v>
+      </c>
+      <c r="H3">
+        <v>0.04584284899288218</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.03399387209132513</v>
+        <v>-0.04349261494269408</v>
       </c>
       <c r="C4">
-        <v>0.01553477992210002</v>
+        <v>0.05950116357587433</v>
       </c>
       <c r="D4">
-        <v>-0.03156344369705062</v>
+        <v>-0.02072409292500063</v>
       </c>
       <c r="E4">
-        <v>-0.005484205855718538</v>
+        <v>0.0007966095374356283</v>
       </c>
       <c r="F4">
-        <v>-0.05304593761168615</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>0.03605331130283689</v>
+      </c>
+      <c r="G4">
+        <v>-0.03785065917355886</v>
+      </c>
+      <c r="H4">
+        <v>-0.007168021938433695</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,190 +827,250 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.06025424208042494</v>
+        <v>-0.02666458253451819</v>
       </c>
       <c r="C6">
-        <v>0.003942673127058809</v>
+        <v>0.05732292097609079</v>
       </c>
       <c r="D6">
-        <v>-0.03984072814804459</v>
+        <v>-0.01481850907806544</v>
       </c>
       <c r="E6">
-        <v>-0.003004489221122247</v>
+        <v>0.001607726922615634</v>
       </c>
       <c r="F6">
-        <v>-0.03748760944048808</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>0.01645223278357898</v>
+      </c>
+      <c r="G6">
+        <v>-0.01801377273064867</v>
+      </c>
+      <c r="H6">
+        <v>-7.985931425509759e-05</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.02701416282598333</v>
+        <v>-0.0106926959642924</v>
       </c>
       <c r="C7">
-        <v>0.06990443890681866</v>
+        <v>0.03153062231914051</v>
       </c>
       <c r="D7">
-        <v>-0.002313607240026391</v>
+        <v>-0.01201600312535398</v>
       </c>
       <c r="E7">
-        <v>-0.00411426303170904</v>
+        <v>0.01612060063908159</v>
       </c>
       <c r="F7">
-        <v>-0.01328655170305615</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>0.0189511458273253</v>
+      </c>
+      <c r="G7">
+        <v>-0.06818748825665853</v>
+      </c>
+      <c r="H7">
+        <v>0.03141453208221073</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.01621240609684617</v>
+        <v>0.005111440778664589</v>
       </c>
       <c r="C8">
-        <v>0.00997770488692541</v>
+        <v>0.00491514681309883</v>
       </c>
       <c r="D8">
-        <v>-0.02222784478373738</v>
+        <v>-0.001916851873505365</v>
       </c>
       <c r="E8">
-        <v>-0.005349928666775671</v>
+        <v>-0.007253369272659275</v>
       </c>
       <c r="F8">
-        <v>-0.04857578747694676</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>0.02740482650271025</v>
+      </c>
+      <c r="G8">
+        <v>-0.02203166548280676</v>
+      </c>
+      <c r="H8">
+        <v>-0.006637535872180919</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.02764826826261671</v>
+        <v>-0.02179113823581687</v>
       </c>
       <c r="C9">
-        <v>0.01232409392353673</v>
+        <v>0.04135411052216063</v>
       </c>
       <c r="D9">
-        <v>-0.02583431204784546</v>
+        <v>-0.01452790956215371</v>
       </c>
       <c r="E9">
-        <v>-0.02972284350630503</v>
+        <v>0.00229891251630693</v>
       </c>
       <c r="F9">
-        <v>-0.05018520888880165</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>0.02709759579930848</v>
+      </c>
+      <c r="G9">
+        <v>-0.02516016129221056</v>
+      </c>
+      <c r="H9">
+        <v>0.01612333480009366</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.05073641120193573</v>
+        <v>-0.1075843452356028</v>
       </c>
       <c r="C10">
-        <v>-0.01312029013830709</v>
+        <v>-0.172717829195558</v>
       </c>
       <c r="D10">
-        <v>0.1634902001292289</v>
+        <v>0.02090868149994709</v>
       </c>
       <c r="E10">
-        <v>-0.04745669378706523</v>
+        <v>-0.02126946260623714</v>
       </c>
       <c r="F10">
-        <v>-0.0002853980893057146</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>-0.01344975396993335</v>
+      </c>
+      <c r="G10">
+        <v>-0.02523919659725424</v>
+      </c>
+      <c r="H10">
+        <v>0.03584973929547161</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.02760218273489288</v>
+        <v>-0.02616082517956984</v>
       </c>
       <c r="C11">
-        <v>-0.002819749622027696</v>
+        <v>0.05260883850604114</v>
       </c>
       <c r="D11">
-        <v>-0.04061043046519728</v>
+        <v>-0.0002554742916647862</v>
       </c>
       <c r="E11">
-        <v>0.001823570445846556</v>
+        <v>0.006989717563767909</v>
       </c>
       <c r="F11">
-        <v>-0.02084581407830221</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>0.03479246462212617</v>
+      </c>
+      <c r="G11">
+        <v>-0.004641272764800042</v>
+      </c>
+      <c r="H11">
+        <v>0.007514588520881627</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.03521049382716797</v>
+        <v>-0.02616105382868785</v>
       </c>
       <c r="C12">
-        <v>0.00346962706571234</v>
+        <v>0.04651475208984191</v>
       </c>
       <c r="D12">
-        <v>-0.03953198456985679</v>
+        <v>-0.004644579462613869</v>
       </c>
       <c r="E12">
-        <v>0.01539840780773459</v>
+        <v>0.01237809479506631</v>
       </c>
       <c r="F12">
-        <v>-0.002531660358827449</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>0.01435297072079547</v>
+      </c>
+      <c r="G12">
+        <v>-0.01348640689300293</v>
+      </c>
+      <c r="H12">
+        <v>0.006313467699762745</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.01547374700426672</v>
+        <v>-0.00872970835570152</v>
       </c>
       <c r="C13">
-        <v>-0.001600275561351922</v>
+        <v>0.02857013067433824</v>
       </c>
       <c r="D13">
-        <v>-0.01307394360803241</v>
+        <v>-0.02310542723485354</v>
       </c>
       <c r="E13">
-        <v>-0.02213376069054591</v>
+        <v>-0.01418780396981018</v>
       </c>
       <c r="F13">
-        <v>-0.05756786539058686</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>0.04336920301989277</v>
+      </c>
+      <c r="G13">
+        <v>-0.01981894223362946</v>
+      </c>
+      <c r="H13">
+        <v>0.004350536293473777</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.01471790470831803</v>
+        <v>-0.004621447198637922</v>
       </c>
       <c r="C14">
-        <v>0.01467258221029055</v>
+        <v>0.02114695228711659</v>
       </c>
       <c r="D14">
-        <v>-0.007739743562707619</v>
+        <v>-0.007641629269409679</v>
       </c>
       <c r="E14">
-        <v>-0.001470278570823503</v>
+        <v>0.006504626685959245</v>
       </c>
       <c r="F14">
-        <v>-0.04571532451736579</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>0.01182076266658939</v>
+      </c>
+      <c r="G14">
+        <v>-0.03337870824578535</v>
+      </c>
+      <c r="H14">
+        <v>0.0005324152425429725</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -997,30 +1087,42 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.02574516201304297</v>
+        <v>-0.02228593947041185</v>
       </c>
       <c r="C16">
-        <v>0.003180529125175852</v>
+        <v>0.04003919377260951</v>
       </c>
       <c r="D16">
-        <v>-0.04069346872678208</v>
+        <v>-0.0001210102073743276</v>
       </c>
       <c r="E16">
-        <v>-0.0004125024838049623</v>
+        <v>0.003717088016544605</v>
       </c>
       <c r="F16">
-        <v>-0.02254960250169</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>0.02333861794608143</v>
+      </c>
+      <c r="G16">
+        <v>-0.01015700408349893</v>
+      </c>
+      <c r="H16">
+        <v>0.006404932535110966</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1139,16 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,70 +1165,94 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.02900626485436346</v>
+        <v>-0.02121269172883997</v>
       </c>
       <c r="C19">
-        <v>0.0008384065789374955</v>
+        <v>0.04890943128827682</v>
       </c>
       <c r="D19">
-        <v>-0.03229757890948518</v>
+        <v>-0.01339805014279838</v>
       </c>
       <c r="E19">
-        <v>-0.009932322982508819</v>
+        <v>-0.02837629026087955</v>
       </c>
       <c r="F19">
-        <v>-0.08550769669355369</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>0.0579226134403418</v>
+      </c>
+      <c r="G19">
+        <v>-0.03126313219411907</v>
+      </c>
+      <c r="H19">
+        <v>-0.00382971285966545</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.001077044600208553</v>
+        <v>-0.004682984380131001</v>
       </c>
       <c r="C20">
-        <v>0.003957126610915866</v>
+        <v>0.02728269667485424</v>
       </c>
       <c r="D20">
-        <v>-0.001371909448535197</v>
+        <v>-0.01201142412359691</v>
       </c>
       <c r="E20">
-        <v>-0.02010631024088023</v>
+        <v>-0.01643456347323641</v>
       </c>
       <c r="F20">
-        <v>-0.03220228875632008</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>0.02180600533436195</v>
+      </c>
+      <c r="G20">
+        <v>-0.0207492297530976</v>
+      </c>
+      <c r="H20">
+        <v>0.004040585325568054</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.03455952016527677</v>
+        <v>-0.005881609237181166</v>
       </c>
       <c r="C21">
-        <v>0.02107978476532803</v>
+        <v>0.03007750247441812</v>
       </c>
       <c r="D21">
-        <v>-0.01818579822042244</v>
+        <v>-0.01508624584046891</v>
       </c>
       <c r="E21">
-        <v>-0.007725659130781916</v>
+        <v>-0.02022955503891553</v>
       </c>
       <c r="F21">
-        <v>-0.03802674279270077</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>0.03828565798239665</v>
+      </c>
+      <c r="G21">
+        <v>-0.03975690817885217</v>
+      </c>
+      <c r="H21">
+        <v>0.0157199145731854</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1137,10 +1269,16 @@
       <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1157,230 +1295,302 @@
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.02466399251003261</v>
+        <v>-0.01786766445374292</v>
       </c>
       <c r="C24">
-        <v>0.0006585591199973937</v>
+        <v>0.04313219511004451</v>
       </c>
       <c r="D24">
-        <v>-0.03216424441910102</v>
+        <v>-0.005269241087647096</v>
       </c>
       <c r="E24">
-        <v>-0.0008214623325467707</v>
+        <v>0.009571600675450201</v>
       </c>
       <c r="F24">
-        <v>-0.01586731569900852</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>0.02829614504043123</v>
+      </c>
+      <c r="G24">
+        <v>-0.005490388095234017</v>
+      </c>
+      <c r="H24">
+        <v>0.01355362080492145</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.03607625035418899</v>
+        <v>-0.03486109682219669</v>
       </c>
       <c r="C25">
-        <v>-0.0007394605089393622</v>
+        <v>0.05297038350252679</v>
       </c>
       <c r="D25">
-        <v>-0.03216796852167359</v>
+        <v>-0.008900411085140635</v>
       </c>
       <c r="E25">
-        <v>-0.009227170980640294</v>
+        <v>0.01703261563924332</v>
       </c>
       <c r="F25">
-        <v>-0.03114464801509879</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>0.0246555981899436</v>
+      </c>
+      <c r="G25">
+        <v>-0.01548584599437739</v>
+      </c>
+      <c r="H25">
+        <v>0.004276957953118931</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.001499974839754213</v>
+        <v>0.0002837205024203071</v>
       </c>
       <c r="C26">
-        <v>0.009655891840888102</v>
+        <v>0.003393891651765425</v>
       </c>
       <c r="D26">
-        <v>-0.007416000682970583</v>
+        <v>-0.02341134168873889</v>
       </c>
       <c r="E26">
-        <v>-0.02554477272036286</v>
+        <v>-0.002957125326489854</v>
       </c>
       <c r="F26">
-        <v>-0.02319944168199133</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>0.01602461400128834</v>
+      </c>
+      <c r="G26">
+        <v>-0.01763618276913574</v>
+      </c>
+      <c r="H26">
+        <v>0.007539211927618577</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>0.0006556923734869222</v>
+        <v>-0.0006526555512791894</v>
       </c>
       <c r="C27">
-        <v>0.0007388982765103748</v>
+        <v>-0.0007172708885113434</v>
       </c>
       <c r="D27">
-        <v>0.005144479346812858</v>
+        <v>0.000678750447072555</v>
       </c>
       <c r="E27">
-        <v>0.01318455332576374</v>
+        <v>0.0002123428425823996</v>
       </c>
       <c r="F27">
-        <v>-0.0145382080216271</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>0.001097539650983938</v>
+      </c>
+      <c r="G27">
+        <v>-0.004505034792678671</v>
+      </c>
+      <c r="H27">
+        <v>-0.008784735627472584</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.08688909212441218</v>
+        <v>-0.1426573470773725</v>
       </c>
       <c r="C28">
-        <v>-0.02074464624132645</v>
+        <v>-0.208053842204137</v>
       </c>
       <c r="D28">
-        <v>0.2370017778537274</v>
+        <v>0.01329603934666332</v>
       </c>
       <c r="E28">
-        <v>-0.05974825245206804</v>
+        <v>-0.01308366966251169</v>
       </c>
       <c r="F28">
-        <v>0.009475481194462836</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>-0.01327904279789914</v>
+      </c>
+      <c r="G28">
+        <v>-0.0412491834773876</v>
+      </c>
+      <c r="H28">
+        <v>0.03669220965989695</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.01516356938558611</v>
+        <v>-0.009115336466559492</v>
       </c>
       <c r="C29">
-        <v>0.01103981837198409</v>
+        <v>0.01762123918491542</v>
       </c>
       <c r="D29">
-        <v>-0.007501723538879772</v>
+        <v>-0.006573402400061819</v>
       </c>
       <c r="E29">
-        <v>0.0002475407705965196</v>
+        <v>0.005194439763942117</v>
       </c>
       <c r="F29">
-        <v>-0.04666858452783439</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>0.006854615388030236</v>
+      </c>
+      <c r="G29">
+        <v>-0.02903300439287007</v>
+      </c>
+      <c r="H29">
+        <v>-0.005377568302553483</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.03763615822402871</v>
+        <v>-0.02906642043799531</v>
       </c>
       <c r="C30">
-        <v>-0.04645448421640926</v>
+        <v>0.07628532990307457</v>
       </c>
       <c r="D30">
-        <v>-0.05777505925118886</v>
+        <v>-0.02553704178371562</v>
       </c>
       <c r="E30">
-        <v>-0.01332534123012608</v>
+        <v>-0.0138641863707314</v>
       </c>
       <c r="F30">
-        <v>-0.09369595662822618</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>0.05660561059879918</v>
+      </c>
+      <c r="G30">
+        <v>0.007698953655754123</v>
+      </c>
+      <c r="H30">
+        <v>-0.02325623866485272</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.04863650774477621</v>
+        <v>-0.03398626253011482</v>
       </c>
       <c r="C31">
-        <v>0.01083831573252836</v>
+        <v>0.02158270414351209</v>
       </c>
       <c r="D31">
-        <v>-0.01627440894624728</v>
+        <v>-0.001692786530395986</v>
       </c>
       <c r="E31">
-        <v>0.01057280156934585</v>
+        <v>0.01268501272026709</v>
       </c>
       <c r="F31">
-        <v>-0.02694066989428878</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>-0.01649238524890852</v>
+      </c>
+      <c r="G31">
+        <v>-0.02332052693216918</v>
+      </c>
+      <c r="H31">
+        <v>0.005583053816904334</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>-0.0003565505264418726</v>
+        <v>3.256116890435357e-05</v>
       </c>
       <c r="C32">
-        <v>0.02908740590741394</v>
+        <v>0.02658750374711657</v>
       </c>
       <c r="D32">
-        <v>-0.02563995439445004</v>
+        <v>0.00603061295466476</v>
       </c>
       <c r="E32">
-        <v>0.01292130761002068</v>
+        <v>-0.01078551500937766</v>
       </c>
       <c r="F32">
-        <v>-0.05635563106957842</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>0.0915769279253557</v>
+      </c>
+      <c r="G32">
+        <v>-0.04291502405885716</v>
+      </c>
+      <c r="H32">
+        <v>-0.01348449932019771</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.03112414034490457</v>
+        <v>-0.02204981302610801</v>
       </c>
       <c r="C33">
-        <v>-0.02023783651669493</v>
+        <v>0.04998223676295172</v>
       </c>
       <c r="D33">
-        <v>-0.0324128067217371</v>
+        <v>-0.01265965815508272</v>
       </c>
       <c r="E33">
-        <v>-0.02500228629744384</v>
+        <v>-0.01215827170866839</v>
       </c>
       <c r="F33">
-        <v>-0.0469744794249105</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>0.0330856834976345</v>
+      </c>
+      <c r="G33">
+        <v>-0.008089904520931387</v>
+      </c>
+      <c r="H33">
+        <v>0.01761622590942722</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.02626547775910719</v>
+        <v>-0.03570400544129766</v>
       </c>
       <c r="C34">
-        <v>0.01104513896417108</v>
+        <v>0.05483651698807585</v>
       </c>
       <c r="D34">
-        <v>-0.04121797245464631</v>
+        <v>0.007175556206913965</v>
       </c>
       <c r="E34">
-        <v>0.003006584920080228</v>
+        <v>0.01776131324434486</v>
       </c>
       <c r="F34">
-        <v>-0.02621595886195197</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>0.03082433516883351</v>
+      </c>
+      <c r="G34">
+        <v>-0.01895807497706454</v>
+      </c>
+      <c r="H34">
+        <v>0.009563192885035777</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1397,30 +1607,42 @@
       <c r="F35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.01083115242909639</v>
+        <v>-0.008397935106149156</v>
       </c>
       <c r="C36">
-        <v>0.005244132113774599</v>
+        <v>0.000422972680443727</v>
       </c>
       <c r="D36">
-        <v>-0.0009519207241874822</v>
+        <v>-0.01028419843909858</v>
       </c>
       <c r="E36">
-        <v>-0.006873018657970523</v>
+        <v>0.0003978219291843392</v>
       </c>
       <c r="F36">
-        <v>-0.02196369052599952</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>0.008097437746688682</v>
+      </c>
+      <c r="G36">
+        <v>-0.0121451429680862</v>
+      </c>
+      <c r="H36">
+        <v>0.009073263183322409</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,150 +1659,198 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.01991621455499706</v>
+        <v>-0.02615055883962435</v>
       </c>
       <c r="C38">
-        <v>-0.003589609125114424</v>
+        <v>0.01996234042602972</v>
       </c>
       <c r="D38">
-        <v>-0.006569210086529787</v>
+        <v>0.009067573962346748</v>
       </c>
       <c r="E38">
-        <v>-0.02553688037596828</v>
+        <v>0.004496372035200076</v>
       </c>
       <c r="F38">
-        <v>-0.04918135730879909</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>0.01373186182291174</v>
+      </c>
+      <c r="G38">
+        <v>-0.01876660245714701</v>
+      </c>
+      <c r="H38">
+        <v>0.003571097137254427</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.02104659055863657</v>
+        <v>-0.01750775004938068</v>
       </c>
       <c r="C39">
-        <v>0.008914523495593183</v>
+        <v>0.08277899830597983</v>
       </c>
       <c r="D39">
-        <v>-0.06178468587027337</v>
+        <v>-0.01079686786024919</v>
       </c>
       <c r="E39">
-        <v>-0.01429167681674965</v>
+        <v>-0.002014663577702023</v>
       </c>
       <c r="F39">
-        <v>-0.05354561906331927</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>0.04994521204585509</v>
+      </c>
+      <c r="G39">
+        <v>-0.00689084368099903</v>
+      </c>
+      <c r="H39">
+        <v>0.01735291714409281</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.0261281979399854</v>
+        <v>-0.01715688861565265</v>
       </c>
       <c r="C40">
-        <v>-0.0009683720763992981</v>
+        <v>0.02852609846680824</v>
       </c>
       <c r="D40">
-        <v>-0.04229426426727746</v>
+        <v>-0.01135091082389958</v>
       </c>
       <c r="E40">
-        <v>-0.01341653096296019</v>
+        <v>-0.004154913803609305</v>
       </c>
       <c r="F40">
-        <v>-0.02056485397087715</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>0.03282278366364228</v>
+      </c>
+      <c r="G40">
+        <v>-0.008654018854463865</v>
+      </c>
+      <c r="H40">
+        <v>0.01553269507106546</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.0096742373649315</v>
+        <v>-0.01087858967581524</v>
       </c>
       <c r="C41">
-        <v>-0.001550320456924396</v>
+        <v>-0.007428022395846605</v>
       </c>
       <c r="D41">
-        <v>0.01019594001091627</v>
+        <v>-0.002604322024325644</v>
       </c>
       <c r="E41">
-        <v>-0.009865464643302797</v>
+        <v>0.006919568913471698</v>
       </c>
       <c r="F41">
-        <v>-0.00543489745084651</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>0.003423689532102522</v>
+      </c>
+      <c r="G41">
+        <v>-0.005466060339688098</v>
+      </c>
+      <c r="H41">
+        <v>0.007491273054668833</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>0.2132336541076198</v>
+        <v>-0.04375736788904551</v>
       </c>
       <c r="C42">
-        <v>-0.1555740603086159</v>
+        <v>0.09455271838771884</v>
       </c>
       <c r="D42">
-        <v>-0.2048122043444419</v>
+        <v>-0.1181313792199534</v>
       </c>
       <c r="E42">
-        <v>-0.6532934227076147</v>
+        <v>-0.1038432411460387</v>
       </c>
       <c r="F42">
-        <v>0.6286481467851228</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>-0.3089624980085001</v>
+      </c>
+      <c r="G42">
+        <v>0.4466729088783347</v>
+      </c>
+      <c r="H42">
+        <v>0.801425199660284</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.01464805365291853</v>
+        <v>-0.02305035397587031</v>
       </c>
       <c r="C43">
-        <v>-0.004436990714360782</v>
+        <v>0.001117597511657509</v>
       </c>
       <c r="D43">
-        <v>0.008849896491455581</v>
+        <v>-0.002381020570760203</v>
       </c>
       <c r="E43">
-        <v>-0.01376011768153006</v>
+        <v>0.003889410683420449</v>
       </c>
       <c r="F43">
-        <v>-0.01136272243595755</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>0.01153112066263381</v>
+      </c>
+      <c r="G43">
+        <v>-0.005493106132211343</v>
+      </c>
+      <c r="H43">
+        <v>0.01194534789903813</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.008115584256344817</v>
+        <v>-0.009616296613392706</v>
       </c>
       <c r="C44">
-        <v>0.0118852245218493</v>
+        <v>0.04620855644789332</v>
       </c>
       <c r="D44">
-        <v>-0.01754436801684392</v>
+        <v>-0.005812225676802271</v>
       </c>
       <c r="E44">
-        <v>-0.0338742944028395</v>
+        <v>-0.01386081004603108</v>
       </c>
       <c r="F44">
-        <v>-0.0697278507114375</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>0.03425583538902544</v>
+      </c>
+      <c r="G44">
+        <v>-0.02258854530119718</v>
+      </c>
+      <c r="H44">
+        <v>0.02204918069225697</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,70 +1867,94 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.01435279702967562</v>
+        <v>0.0001718630678905305</v>
       </c>
       <c r="C46">
-        <v>0.003108951399962318</v>
+        <v>0.01223460691373506</v>
       </c>
       <c r="D46">
-        <v>-0.03703228045390874</v>
+        <v>-0.01100068240577076</v>
       </c>
       <c r="E46">
-        <v>-0.01007843736056267</v>
+        <v>0.003685213210543837</v>
       </c>
       <c r="F46">
-        <v>-0.0714638813712459</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>0.001673318322318119</v>
+      </c>
+      <c r="G46">
+        <v>-0.01999842959335913</v>
+      </c>
+      <c r="H46">
+        <v>-0.004620743283387902</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.07224869454848286</v>
+        <v>-0.05768998399347463</v>
       </c>
       <c r="C47">
-        <v>-0.005225278485353682</v>
+        <v>0.05510271422165335</v>
       </c>
       <c r="D47">
-        <v>-0.0210065273306473</v>
+        <v>0.006328942918029819</v>
       </c>
       <c r="E47">
-        <v>0.03251088697397321</v>
+        <v>0.01437602394373507</v>
       </c>
       <c r="F47">
-        <v>0.001405166717323367</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>-0.0478844437281731</v>
+      </c>
+      <c r="G47">
+        <v>-0.0209667184640001</v>
+      </c>
+      <c r="H47">
+        <v>-0.006767930272501083</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.02108647457650483</v>
+        <v>-0.01067397899189841</v>
       </c>
       <c r="C48">
-        <v>0.004165486861327553</v>
+        <v>0.006106425383681235</v>
       </c>
       <c r="D48">
-        <v>-0.005053364469824546</v>
+        <v>-0.0003758022857438887</v>
       </c>
       <c r="E48">
-        <v>-0.004028706848062806</v>
+        <v>0.00558693033347237</v>
       </c>
       <c r="F48">
-        <v>-0.0252397220206818</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>-0.006321833515792051</v>
+      </c>
+      <c r="G48">
+        <v>-0.01692170688307307</v>
+      </c>
+      <c r="H48">
+        <v>0.003011397652508569</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1677,50 +1971,68 @@
       <c r="F49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.08070809642055279</v>
+        <v>-0.06193930802266544</v>
       </c>
       <c r="C50">
-        <v>0.02311738751445882</v>
+        <v>0.05502696092945165</v>
       </c>
       <c r="D50">
-        <v>-0.04030320567599999</v>
+        <v>0.005000599211922129</v>
       </c>
       <c r="E50">
-        <v>0.008864836033582285</v>
+        <v>0.01148376900606226</v>
       </c>
       <c r="F50">
-        <v>-0.02288462359419599</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>-0.03916864424813464</v>
+      </c>
+      <c r="G50">
+        <v>-0.04498574392006127</v>
+      </c>
+      <c r="H50">
+        <v>0.007841084978295755</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.009543035062064794</v>
+        <v>-0.01007911883198215</v>
       </c>
       <c r="C51">
-        <v>0.006848600117201505</v>
+        <v>0.02297807561354469</v>
       </c>
       <c r="D51">
-        <v>0.01595954312780133</v>
+        <v>-0.008014956196746319</v>
       </c>
       <c r="E51">
-        <v>-0.03892001979990741</v>
+        <v>-0.00184719489796716</v>
       </c>
       <c r="F51">
-        <v>-0.06648694204064158</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>0.04549918443112894</v>
+      </c>
+      <c r="G51">
+        <v>-0.02548316440265859</v>
+      </c>
+      <c r="H51">
+        <v>0.02399454404875754</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,190 +2049,250 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1044860059868313</v>
+        <v>-0.08147012763476361</v>
       </c>
       <c r="C53">
-        <v>0.006253147069767621</v>
+        <v>0.08108226524649995</v>
       </c>
       <c r="D53">
-        <v>-0.04848151779699424</v>
+        <v>0.006973724288143995</v>
       </c>
       <c r="E53">
-        <v>0.05595737103700682</v>
+        <v>0.03945481312118978</v>
       </c>
       <c r="F53">
-        <v>0.01047263038831947</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>-0.06204165847109008</v>
+      </c>
+      <c r="G53">
+        <v>-0.0241572489684442</v>
+      </c>
+      <c r="H53">
+        <v>-0.002182843568837183</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.02359271675981791</v>
+        <v>-0.02426080231938927</v>
       </c>
       <c r="C54">
-        <v>0.008273443076565542</v>
+        <v>3.114933208016653e-05</v>
       </c>
       <c r="D54">
-        <v>0.001253400557330508</v>
+        <v>0.005356219805118746</v>
       </c>
       <c r="E54">
-        <v>0.01321539065356971</v>
+        <v>-6.541714979597826e-05</v>
       </c>
       <c r="F54">
-        <v>-0.03394236816991261</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>0.01002513735313596</v>
+      </c>
+      <c r="G54">
+        <v>-0.02562912720221231</v>
+      </c>
+      <c r="H54">
+        <v>-0.0001448522977393544</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.07701491024029239</v>
+        <v>-0.05795974318711385</v>
       </c>
       <c r="C55">
-        <v>6.643459245531454e-05</v>
+        <v>0.06977295815588938</v>
       </c>
       <c r="D55">
-        <v>-0.06423175541991605</v>
+        <v>0.005548695805169254</v>
       </c>
       <c r="E55">
-        <v>0.03018800520743792</v>
+        <v>0.02852977212063883</v>
       </c>
       <c r="F55">
-        <v>0.01140345024636466</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>-0.05749312606220913</v>
+      </c>
+      <c r="G55">
+        <v>-0.01225715411664717</v>
+      </c>
+      <c r="H55">
+        <v>-0.005334764228668998</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1446191469521484</v>
+        <v>-0.1244419194697799</v>
       </c>
       <c r="C56">
-        <v>-0.003262893580138096</v>
+        <v>0.1117235710595263</v>
       </c>
       <c r="D56">
-        <v>-0.06912014146807699</v>
+        <v>0.01568410128707225</v>
       </c>
       <c r="E56">
-        <v>0.0785610429092493</v>
+        <v>0.04191553865235825</v>
       </c>
       <c r="F56">
-        <v>0.03908575768623611</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>-0.1033535120763905</v>
+      </c>
+      <c r="G56">
+        <v>-0.009779668997882534</v>
+      </c>
+      <c r="H56">
+        <v>-0.0242079261974572</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>0.03405792946234204</v>
+        <v>-0.01471874543636381</v>
       </c>
       <c r="C57">
-        <v>-0.009091862723077371</v>
+        <v>0.01569395946723934</v>
       </c>
       <c r="D57">
-        <v>-0.01645964612040526</v>
+        <v>-0.02359201180434576</v>
       </c>
       <c r="E57">
-        <v>-0.04235924736244991</v>
+        <v>-0.03143737853931082</v>
       </c>
       <c r="F57">
-        <v>-0.03443618477368906</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>0.02562151448221488</v>
+      </c>
+      <c r="G57">
+        <v>-0.02021871406341753</v>
+      </c>
+      <c r="H57">
+        <v>0.01128520855042508</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.1822635751193562</v>
+        <v>-0.07329468036969601</v>
       </c>
       <c r="C58">
-        <v>-0.1321438724773013</v>
+        <v>0.1161870226260363</v>
       </c>
       <c r="D58">
-        <v>-0.1555689211199152</v>
+        <v>-0.0187554607672647</v>
       </c>
       <c r="E58">
-        <v>-0.4096755551255275</v>
+        <v>-0.9541531053106259</v>
       </c>
       <c r="F58">
-        <v>-0.551403418978288</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>-0.1188178901621344</v>
+      </c>
+      <c r="G58">
+        <v>-0.1101644754799144</v>
+      </c>
+      <c r="H58">
+        <v>-0.1243789527138677</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.08633552536280426</v>
+        <v>-0.1759267005368144</v>
       </c>
       <c r="C59">
-        <v>-0.03967854800684919</v>
+        <v>-0.1966389973571314</v>
       </c>
       <c r="D59">
-        <v>0.200642452285927</v>
+        <v>0.02129963465809899</v>
       </c>
       <c r="E59">
-        <v>-0.04416733843567919</v>
+        <v>-0.01533591099127032</v>
       </c>
       <c r="F59">
-        <v>-0.04148075971476894</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>0.0139995802666681</v>
+      </c>
+      <c r="G59">
+        <v>-0.01945678985045735</v>
+      </c>
+      <c r="H59">
+        <v>0.009900420920834964</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.1987679049941339</v>
+        <v>-0.2947132598104688</v>
       </c>
       <c r="C60">
-        <v>-0.04701357479121574</v>
+        <v>0.1118507785219722</v>
       </c>
       <c r="D60">
-        <v>0.02816041917334821</v>
+        <v>0.002705106760375664</v>
       </c>
       <c r="E60">
-        <v>-0.06966650227744134</v>
+        <v>0.02458715616074386</v>
       </c>
       <c r="F60">
-        <v>-0.1026328279216783</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>0.3669525048672925</v>
+      </c>
+      <c r="G60">
+        <v>0.08695449809037673</v>
+      </c>
+      <c r="H60">
+        <v>0.02527613675885133</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.02914004230478083</v>
+        <v>-0.02217860981496291</v>
       </c>
       <c r="C61">
-        <v>0.003141402048732949</v>
+        <v>0.06550020394048071</v>
       </c>
       <c r="D61">
-        <v>-0.05183292927930318</v>
+        <v>-0.003985161323384847</v>
       </c>
       <c r="E61">
-        <v>-0.006485886496541449</v>
+        <v>0.003457857084208631</v>
       </c>
       <c r="F61">
-        <v>-0.02946394573601566</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>0.03614942642731173</v>
+      </c>
+      <c r="G61">
+        <v>-0.01113330536882682</v>
+      </c>
+      <c r="H61">
+        <v>0.007678478156356432</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1937,150 +2309,198 @@
       <c r="F62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.01290993148915412</v>
+        <v>-0.007961063166292082</v>
       </c>
       <c r="C63">
-        <v>0.007324388734484243</v>
+        <v>0.02869851079006103</v>
       </c>
       <c r="D63">
-        <v>-0.0237857575359348</v>
+        <v>-0.007456317124172399</v>
       </c>
       <c r="E63">
-        <v>-0.0008432433712135302</v>
+        <v>0.01429818530725704</v>
       </c>
       <c r="F63">
-        <v>-0.01160729179623312</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>0.001931856521746909</v>
+      </c>
+      <c r="G63">
+        <v>-0.0213217405247543</v>
+      </c>
+      <c r="H63">
+        <v>0.0001578771349058015</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.0457060698272827</v>
+        <v>-0.04219666411907793</v>
       </c>
       <c r="C64">
-        <v>0.001251854594663849</v>
+        <v>0.03987289023130802</v>
       </c>
       <c r="D64">
-        <v>-0.03008912986045027</v>
+        <v>-0.002975637399456717</v>
       </c>
       <c r="E64">
-        <v>-0.0004324031275430177</v>
+        <v>0.01911477752985008</v>
       </c>
       <c r="F64">
-        <v>-0.02564274207898011</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>0.01369584178877902</v>
+      </c>
+      <c r="G64">
+        <v>-0.004756318514315569</v>
+      </c>
+      <c r="H64">
+        <v>0.02423359351037142</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.06713269424115811</v>
+        <v>-0.0719185200619258</v>
       </c>
       <c r="C65">
-        <v>0.004035723355834832</v>
+        <v>0.08025176351895953</v>
       </c>
       <c r="D65">
-        <v>-0.04231682046714989</v>
+        <v>-0.01319334266889166</v>
       </c>
       <c r="E65">
-        <v>0.002121681701489617</v>
+        <v>0.009325266645783124</v>
       </c>
       <c r="F65">
-        <v>-0.03400631984898204</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>0.03581908296253862</v>
+      </c>
+      <c r="G65">
+        <v>-0.009118426125941066</v>
+      </c>
+      <c r="H65">
+        <v>-0.01037289195967841</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.04420964631099624</v>
+        <v>-0.03590090325540687</v>
       </c>
       <c r="C66">
-        <v>-0.008885604288219752</v>
+        <v>0.1231911819487382</v>
       </c>
       <c r="D66">
-        <v>-0.0719335736521025</v>
+        <v>-0.009220735328050905</v>
       </c>
       <c r="E66">
-        <v>0.02463407991255498</v>
+        <v>0.000433111642204246</v>
       </c>
       <c r="F66">
-        <v>-0.06801218498269165</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>0.06185538353576651</v>
+      </c>
+      <c r="G66">
+        <v>-0.005357725470326364</v>
+      </c>
+      <c r="H66">
+        <v>-0.01109464067960816</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.03461760934979799</v>
+        <v>-0.05001634088575069</v>
       </c>
       <c r="C67">
-        <v>-0.007240564238934254</v>
+        <v>0.02697636122548359</v>
       </c>
       <c r="D67">
-        <v>-0.00103477860946286</v>
+        <v>0.00799611909359832</v>
       </c>
       <c r="E67">
-        <v>-0.008568000075212384</v>
+        <v>0.009769543843270235</v>
       </c>
       <c r="F67">
-        <v>-0.04000401313015872</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>0.01373910784945765</v>
+      </c>
+      <c r="G67">
+        <v>-0.02011412859398269</v>
+      </c>
+      <c r="H67">
+        <v>-0.003076583761958747</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.08278043220592528</v>
+        <v>-0.1637999461350111</v>
       </c>
       <c r="C68">
-        <v>-0.03897619659853644</v>
+        <v>-0.2379283985441673</v>
       </c>
       <c r="D68">
-        <v>0.223434332991689</v>
+        <v>0.002707845144253601</v>
       </c>
       <c r="E68">
-        <v>-0.03738450902747608</v>
+        <v>-0.01734010465769613</v>
       </c>
       <c r="F68">
-        <v>-0.001066468184236783</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>-0.02208361173983243</v>
+      </c>
+      <c r="G68">
+        <v>-0.01702093458813764</v>
+      </c>
+      <c r="H68">
+        <v>0.02355007631609943</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.05509884761068135</v>
+        <v>-0.0581171883722736</v>
       </c>
       <c r="C69">
-        <v>-0.004105135525479806</v>
+        <v>0.05192068414438657</v>
       </c>
       <c r="D69">
-        <v>-0.03001028028609217</v>
+        <v>0.01063951346951191</v>
       </c>
       <c r="E69">
-        <v>0.02962922062304755</v>
+        <v>0.02947183052032433</v>
       </c>
       <c r="F69">
-        <v>-0.01196679103072732</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>-0.01803102643921189</v>
+      </c>
+      <c r="G69">
+        <v>-0.0148174701905961</v>
+      </c>
+      <c r="H69">
+        <v>-0.008011911145427448</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2097,170 +2517,224 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.08161988826592882</v>
+        <v>-0.1520509356193063</v>
       </c>
       <c r="C71">
-        <v>-0.02607635586225817</v>
+        <v>-0.2039727142963204</v>
       </c>
       <c r="D71">
-        <v>0.2195477868334958</v>
+        <v>0.009711115595235463</v>
       </c>
       <c r="E71">
-        <v>-0.08159496137639134</v>
+        <v>-0.02947609367967411</v>
       </c>
       <c r="F71">
-        <v>0.02519256340080993</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>-0.02751463276658983</v>
+      </c>
+      <c r="G71">
+        <v>-0.02372912228503872</v>
+      </c>
+      <c r="H71">
+        <v>0.0473816285046731</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1050367433478076</v>
+        <v>-0.07430714826848826</v>
       </c>
       <c r="C72">
-        <v>-0.002486538341209491</v>
+        <v>0.09059650122064281</v>
       </c>
       <c r="D72">
-        <v>-0.1028042665669113</v>
+        <v>0.01229039230064786</v>
       </c>
       <c r="E72">
-        <v>0.009813454071342528</v>
+        <v>0.02593229638352253</v>
       </c>
       <c r="F72">
-        <v>-0.144022521295226</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>0.04324732115807634</v>
+      </c>
+      <c r="G72">
+        <v>-0.002651307915315667</v>
+      </c>
+      <c r="H72">
+        <v>-0.02671370331453294</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2398415134623265</v>
+        <v>-0.3999041390245215</v>
       </c>
       <c r="C73">
-        <v>-0.106620614802445</v>
+        <v>0.170846231823462</v>
       </c>
       <c r="D73">
-        <v>-0.003748182013181155</v>
+        <v>-0.001512198488067762</v>
       </c>
       <c r="E73">
-        <v>-0.1425277843519113</v>
+        <v>-0.01315884293003496</v>
       </c>
       <c r="F73">
-        <v>-0.1118177130413702</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>0.4874679422262633</v>
+      </c>
+      <c r="G73">
+        <v>0.1426122007568556</v>
+      </c>
+      <c r="H73">
+        <v>0.08371166490678836</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.1347996662277319</v>
+        <v>-0.1022506644596251</v>
       </c>
       <c r="C74">
-        <v>-0.01038886890406933</v>
+        <v>0.1195747890946993</v>
       </c>
       <c r="D74">
-        <v>-0.06786299017363015</v>
+        <v>0.01259675449190925</v>
       </c>
       <c r="E74">
-        <v>0.07481224128794635</v>
+        <v>0.0419760354414803</v>
       </c>
       <c r="F74">
-        <v>0.032830172357832</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>-0.08136294425489145</v>
+      </c>
+      <c r="G74">
+        <v>-0.02132887170711457</v>
+      </c>
+      <c r="H74">
+        <v>-0.01044703529016703</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.2711882547123606</v>
+        <v>-0.231186225856123</v>
       </c>
       <c r="C75">
-        <v>-0.02865072626283158</v>
+        <v>0.179523209572527</v>
       </c>
       <c r="D75">
-        <v>-0.09624779207529696</v>
+        <v>0.03327590707348158</v>
       </c>
       <c r="E75">
-        <v>0.1665866632081046</v>
+        <v>0.06073409077645796</v>
       </c>
       <c r="F75">
-        <v>0.02442266706037996</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>-0.2210598911334762</v>
+      </c>
+      <c r="G75">
+        <v>-0.01150941066644552</v>
+      </c>
+      <c r="H75">
+        <v>-0.07389722718914946</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.2694600370924344</v>
+        <v>-0.1447494819132944</v>
       </c>
       <c r="C76">
-        <v>-0.009019898704804331</v>
+        <v>0.1450411977566465</v>
       </c>
       <c r="D76">
-        <v>-0.1115043543770977</v>
+        <v>0.02673083855143455</v>
       </c>
       <c r="E76">
-        <v>0.2077641244922841</v>
+        <v>0.07065054720450566</v>
       </c>
       <c r="F76">
-        <v>0.08207018405131236</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>-0.1730293159573013</v>
+      </c>
+      <c r="G76">
+        <v>-0.03044151936078076</v>
+      </c>
+      <c r="H76">
+        <v>-0.04854905677278742</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.07407337040459021</v>
+        <v>-0.04678180838893293</v>
       </c>
       <c r="C77">
-        <v>-0.01057943882184286</v>
+        <v>0.0692443765323307</v>
       </c>
       <c r="D77">
-        <v>-0.07052197726474028</v>
+        <v>-0.01287256624612786</v>
       </c>
       <c r="E77">
-        <v>-0.1141127251412744</v>
+        <v>-0.03344056715390826</v>
       </c>
       <c r="F77">
-        <v>-0.01848698750683488</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>-0.005522248352769473</v>
+      </c>
+      <c r="G77">
+        <v>-0.01826048564021459</v>
+      </c>
+      <c r="H77">
+        <v>0.03754054530711608</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.03374582165831562</v>
+        <v>-0.03388781719341339</v>
       </c>
       <c r="C78">
-        <v>0.006401265848759202</v>
+        <v>0.05741928596216794</v>
       </c>
       <c r="D78">
-        <v>-0.05269962936571979</v>
+        <v>-0.004470245216839014</v>
       </c>
       <c r="E78">
-        <v>-0.02313218034703171</v>
+        <v>-0.01433313902631313</v>
       </c>
       <c r="F78">
-        <v>-0.0701802448964719</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>0.05407789340783534</v>
+      </c>
+      <c r="G78">
+        <v>-0.0152588353190237</v>
+      </c>
+      <c r="H78">
+        <v>0.005568895016714891</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2277,90 +2751,120 @@
       <c r="F79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.2394269472559231</v>
+        <v>-0.05897054690506867</v>
       </c>
       <c r="C80">
-        <v>0.939552819721981</v>
+        <v>0.09015701951847921</v>
       </c>
       <c r="D80">
-        <v>0.08430051641886062</v>
+        <v>-0.01137449396724492</v>
       </c>
       <c r="E80">
-        <v>-0.1540198670974243</v>
+        <v>0.0705589038298207</v>
       </c>
       <c r="F80">
-        <v>0.01879096887574073</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>-0.01417312024036775</v>
+      </c>
+      <c r="G80">
+        <v>-0.8395270042356497</v>
+      </c>
+      <c r="H80">
+        <v>0.4483566243170056</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.2120759003090155</v>
+        <v>-0.1381641052141917</v>
       </c>
       <c r="C81">
-        <v>-0.01298856052761074</v>
+        <v>0.1061319273685425</v>
       </c>
       <c r="D81">
-        <v>-0.06756179343350528</v>
+        <v>0.01985557348405525</v>
       </c>
       <c r="E81">
-        <v>0.1376674121462442</v>
+        <v>0.03854484996412805</v>
       </c>
       <c r="F81">
-        <v>-0.001857220208172685</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>-0.1441095872410962</v>
+      </c>
+      <c r="G81">
+        <v>-0.0283611804011141</v>
+      </c>
+      <c r="H81">
+        <v>-0.03591764307621907</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>-0.02555414570247094</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>0.01989619399616219</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>0.002169268173496665</v>
       </c>
       <c r="E82">
-        <v>0</v>
+        <v>0.0185996726688483</v>
       </c>
       <c r="F82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
+        <v>0.01061863421513572</v>
+      </c>
+      <c r="G82">
+        <v>-0.000720420252570551</v>
+      </c>
+      <c r="H82">
+        <v>-0.005089629435862919</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.03373058221453839</v>
+        <v>-0.02345053841128425</v>
       </c>
       <c r="C83">
-        <v>-0.007443233174078641</v>
+        <v>0.01884529401000952</v>
       </c>
       <c r="D83">
-        <v>-0.00647384368543159</v>
+        <v>-0.00458828760338876</v>
       </c>
       <c r="E83">
-        <v>-0.03716809329037354</v>
+        <v>-0.02124828204207608</v>
       </c>
       <c r="F83">
-        <v>-0.03609291599344525</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>0.03169567341985628</v>
+      </c>
+      <c r="G83">
+        <v>-0.01911202252191466</v>
+      </c>
+      <c r="H83">
+        <v>0.01202694485146987</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2377,230 +2881,302 @@
       <c r="F84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.2570468574955085</v>
+        <v>-0.2216995723996697</v>
       </c>
       <c r="C85">
-        <v>-0.03787641668361253</v>
+        <v>0.1942017720261188</v>
       </c>
       <c r="D85">
-        <v>-0.1148536081561524</v>
+        <v>0.02219416328575038</v>
       </c>
       <c r="E85">
-        <v>0.184689766881823</v>
+        <v>0.09742823045961414</v>
       </c>
       <c r="F85">
-        <v>0.05475764070637711</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>-0.2291064236192511</v>
+      </c>
+      <c r="G85">
+        <v>0.02994520424894656</v>
+      </c>
+      <c r="H85">
+        <v>-0.100311172261179</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.005888426800547254</v>
+        <v>-0.004642416213573123</v>
       </c>
       <c r="C86">
-        <v>0.009457433386740516</v>
+        <v>0.02943861188316189</v>
       </c>
       <c r="D86">
-        <v>-0.03707763327515868</v>
+        <v>-0.009157012828993191</v>
       </c>
       <c r="E86">
-        <v>-0.02657053233423791</v>
+        <v>-0.009130140135607775</v>
       </c>
       <c r="F86">
-        <v>-0.06737264586677252</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>0.02886312548182795</v>
+      </c>
+      <c r="G86">
+        <v>-0.03528858258100242</v>
+      </c>
+      <c r="H86">
+        <v>0.04061036585480127</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.02871035084745461</v>
+        <v>-0.009571513521122343</v>
       </c>
       <c r="C87">
-        <v>0.006621424269201724</v>
+        <v>0.02471611810304436</v>
       </c>
       <c r="D87">
-        <v>-0.02896133630749655</v>
+        <v>-0.01050364781726998</v>
       </c>
       <c r="E87">
-        <v>-0.05664168470211569</v>
+        <v>-0.07222251628064778</v>
       </c>
       <c r="F87">
-        <v>-0.09379990874986995</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>0.0826322881035958</v>
+      </c>
+      <c r="G87">
+        <v>-0.02205936044072204</v>
+      </c>
+      <c r="H87">
+        <v>0.03297327804369079</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.04294685433805768</v>
+        <v>-0.06794430795432138</v>
       </c>
       <c r="C88">
-        <v>-0.008368099074777926</v>
+        <v>0.04043423700901368</v>
       </c>
       <c r="D88">
-        <v>0.002814175967830736</v>
+        <v>-0.01911585017778892</v>
       </c>
       <c r="E88">
-        <v>0.001242160557153947</v>
+        <v>0.01368357612689486</v>
       </c>
       <c r="F88">
-        <v>0.005230271483848849</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>0.02461186875804871</v>
+      </c>
+      <c r="G88">
+        <v>-0.01259975779223098</v>
+      </c>
+      <c r="H88">
+        <v>-0.004574549635558569</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.1415215529917896</v>
+        <v>-0.2564486680473094</v>
       </c>
       <c r="C89">
-        <v>-0.07549523210276128</v>
+        <v>-0.3508094777777999</v>
       </c>
       <c r="D89">
-        <v>0.3775432343646407</v>
+        <v>0.01535303304728956</v>
       </c>
       <c r="E89">
-        <v>-0.005526140988853816</v>
+        <v>-0.005184617625585254</v>
       </c>
       <c r="F89">
-        <v>-0.03535038350702419</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>-0.01807962924439947</v>
+      </c>
+      <c r="G89">
+        <v>-0.01851985218430958</v>
+      </c>
+      <c r="H89">
+        <v>0.0007873215814320182</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.08376320334052197</v>
+        <v>-0.2131574402389587</v>
       </c>
       <c r="C90">
-        <v>-0.06855385954879444</v>
+        <v>-0.3213817053107778</v>
       </c>
       <c r="D90">
-        <v>0.3442497247527806</v>
+        <v>0.0157270415542961</v>
       </c>
       <c r="E90">
-        <v>-0.01197961873320348</v>
+        <v>-0.01651475799932447</v>
       </c>
       <c r="F90">
-        <v>0.0312515994251388</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>-0.04509381226147715</v>
+      </c>
+      <c r="G90">
+        <v>0.001674410095156326</v>
+      </c>
+      <c r="H90">
+        <v>0.007345508106518787</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.2946027950564331</v>
+        <v>-0.1963093718939042</v>
       </c>
       <c r="C91">
-        <v>-0.03719588076919199</v>
+        <v>0.1432641011420323</v>
       </c>
       <c r="D91">
-        <v>-0.130153481738954</v>
+        <v>0.02923256690570126</v>
       </c>
       <c r="E91">
-        <v>0.1990014598445196</v>
+        <v>0.07631546104724157</v>
       </c>
       <c r="F91">
-        <v>0.1339151120822021</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>-0.2135540401179268</v>
+      </c>
+      <c r="G91">
+        <v>-0.01085650986993388</v>
+      </c>
+      <c r="H91">
+        <v>-0.05124656197282605</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.2185454162336728</v>
+        <v>-0.2349887552531462</v>
       </c>
       <c r="C92">
-        <v>-0.08351264573040225</v>
+        <v>-0.2486962310039109</v>
       </c>
       <c r="D92">
-        <v>0.3745940415788772</v>
+        <v>0.05797292685657472</v>
       </c>
       <c r="E92">
-        <v>0.08163676161474241</v>
+        <v>-0.02615256343715868</v>
       </c>
       <c r="F92">
-        <v>0.01578967160468907</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>-0.1321033094450929</v>
+      </c>
+      <c r="G92">
+        <v>-0.0625304395477955</v>
+      </c>
+      <c r="H92">
+        <v>-0.02427191595307574</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.1344625531927029</v>
+        <v>-0.2446269338927406</v>
       </c>
       <c r="C93">
-        <v>-0.09728891867019691</v>
+        <v>-0.3093161542429198</v>
       </c>
       <c r="D93">
-        <v>0.3924098394658337</v>
+        <v>0.02351407716532228</v>
       </c>
       <c r="E93">
-        <v>-0.04694119771857939</v>
+        <v>-0.02627076077375111</v>
       </c>
       <c r="F93">
-        <v>0.0559687924835577</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>-0.02013905884430352</v>
+      </c>
+      <c r="G93">
+        <v>0.01474990318287546</v>
+      </c>
+      <c r="H93">
+        <v>0.03153147842498798</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.3257760043439261</v>
+        <v>-0.251350907801907</v>
       </c>
       <c r="C94">
-        <v>-0.0710883799770743</v>
+        <v>0.1699707920605291</v>
       </c>
       <c r="D94">
-        <v>-0.08831575167132001</v>
+        <v>0.017626547236524</v>
       </c>
       <c r="E94">
-        <v>0.2358767344593851</v>
+        <v>0.08687051118792265</v>
       </c>
       <c r="F94">
-        <v>0.01487798369706928</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>-0.3391841594710036</v>
+      </c>
+      <c r="G94">
+        <v>0.03074416409041291</v>
+      </c>
+      <c r="H94">
+        <v>-0.261963701833512</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.06013091148849915</v>
+        <v>-0.0700010425472897</v>
       </c>
       <c r="C95">
-        <v>-0.07156395970954289</v>
+        <v>0.1096649818048951</v>
       </c>
       <c r="D95">
-        <v>-0.03441077421395803</v>
+        <v>0.009320684079381072</v>
       </c>
       <c r="E95">
-        <v>0.04584419225509718</v>
+        <v>-0.05654139744554289</v>
       </c>
       <c r="F95">
-        <v>-0.07232644060111129</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>0.133057414797202</v>
+      </c>
+      <c r="G95">
+        <v>0.06632307221823462</v>
+      </c>
+      <c r="H95">
+        <v>-0.02131178937320528</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,10 +3193,16 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2637,30 +3219,42 @@
       <c r="F97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.1907064847015537</v>
+        <v>-0.2158267117357957</v>
       </c>
       <c r="C98">
-        <v>-0.06602288301737533</v>
+        <v>0.06714862348304869</v>
       </c>
       <c r="D98">
-        <v>0.0338548442634866</v>
+        <v>0.02515365892790851</v>
       </c>
       <c r="E98">
-        <v>-0.1372408918694346</v>
+        <v>-0.04125964124023982</v>
       </c>
       <c r="F98">
-        <v>-0.1227097577812767</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>0.2463273112757129</v>
+      </c>
+      <c r="G98">
+        <v>0.07273451311124915</v>
+      </c>
+      <c r="H98">
+        <v>0.08350547792947756</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2677,10 +3271,16 @@
       <c r="F99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,85 +3297,115 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.003107979337134071</v>
+        <v>-0.004010041300210017</v>
       </c>
       <c r="C101">
-        <v>0.005106688995489008</v>
+        <v>0.01848727591232492</v>
       </c>
       <c r="D101">
-        <v>-0.02701162877051946</v>
+        <v>-0.007421035541510634</v>
       </c>
       <c r="E101">
-        <v>-0.06153664026340491</v>
+        <v>-0.03066564114856794</v>
       </c>
       <c r="F101">
-        <v>-0.1885086131209112</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>0.01012731418616555</v>
+      </c>
+      <c r="G101">
+        <v>-0.03962429361780635</v>
+      </c>
+      <c r="H101">
+        <v>-0.02290704862467211</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.1424683069032385</v>
+        <v>-0.1144184102899715</v>
       </c>
       <c r="C102">
-        <v>-0.01566698997836264</v>
+        <v>0.08982781131457895</v>
       </c>
       <c r="D102">
-        <v>-0.04896800037218676</v>
+        <v>0.00260533020162672</v>
       </c>
       <c r="E102">
-        <v>0.09172551561097249</v>
+        <v>0.04922070812807135</v>
       </c>
       <c r="F102">
-        <v>0.05817286796870098</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>-0.07743780537456968</v>
+      </c>
+      <c r="G102">
+        <v>0.003379067833392248</v>
+      </c>
+      <c r="H102">
+        <v>-0.02102758977283218</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>0.04121118137390479</v>
+        <v>-0.00767958858413439</v>
       </c>
       <c r="C103">
-        <v>0.01391190141968673</v>
+        <v>0.007986163659522259</v>
       </c>
       <c r="D103">
-        <v>-0.01659702179083431</v>
+        <v>6.046394397822982e-05</v>
       </c>
       <c r="E103">
-        <v>0.01782949617902423</v>
+        <v>0.001331956797458807</v>
       </c>
       <c r="F103">
-        <v>0.0007771445477420119</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>-0.01454813622983266</v>
+      </c>
+      <c r="G103">
+        <v>-0.01630000108565468</v>
+      </c>
+      <c r="H103">
+        <v>0.006210122291320731</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>-0.06384714115810468</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>-0.04508195312576794</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>-0.9835839189177822</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>0.04266633669036039</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>-0.01287086641687554</v>
+      </c>
+      <c r="G104">
+        <v>-0.03863479272324299</v>
+      </c>
+      <c r="H104">
+        <v>-0.1135592266329478</v>
       </c>
     </row>
   </sheetData>
